--- a/CS162-Final Project/19CLC9-course.xlsx
+++ b/CS162-Final Project/19CLC9-course.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran Van Thuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\ktlt-19CLC9-noname\CS162-Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6CD321-838E-4759-80DD-A17F2D01D6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19APCS1-Schedule" sheetId="1" r:id="rId1"/>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,28 +913,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1009,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="J2" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1033,7 +1034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1059,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="J3" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="K3">
         <v>7</v>
